--- a/Seed_quarterly_average.xlsx
+++ b/Seed_quarterly_average.xlsx
@@ -16,10 +16,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
+    <t>Announced Date</t>
+  </si>
+  <si>
     <t>Money Raised Currency (in USD)</t>
-  </si>
-  <si>
-    <t>Announced Date</t>
   </si>
   <si>
     <t>2007Q1</t>
@@ -580,14 +580,14 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
@@ -595,7 +595,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
@@ -603,7 +603,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
@@ -611,7 +611,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
@@ -619,7 +619,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
@@ -627,7 +627,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7">
@@ -635,7 +635,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8">
@@ -643,7 +643,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9">
@@ -651,7 +651,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10">
@@ -659,7 +659,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11">
@@ -667,7 +667,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12">
@@ -675,7 +675,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13">
@@ -683,7 +683,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14">
@@ -691,7 +691,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15">
@@ -699,7 +699,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>16</v>
       </c>
       <c r="B16">
@@ -707,7 +707,7 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>17</v>
       </c>
       <c r="B17">
@@ -715,7 +715,7 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>18</v>
       </c>
       <c r="B18">
@@ -723,7 +723,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>19</v>
       </c>
       <c r="B19">
@@ -731,7 +731,7 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>20</v>
       </c>
       <c r="B20">
@@ -739,7 +739,7 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>21</v>
       </c>
       <c r="B21">
@@ -747,7 +747,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>22</v>
       </c>
       <c r="B22">
@@ -755,7 +755,7 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>23</v>
       </c>
       <c r="B23">
@@ -763,7 +763,7 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>24</v>
       </c>
       <c r="B24">
@@ -771,7 +771,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>25</v>
       </c>
       <c r="B25">
@@ -779,7 +779,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>26</v>
       </c>
       <c r="B26">
@@ -787,7 +787,7 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>27</v>
       </c>
       <c r="B27">
@@ -795,7 +795,7 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>28</v>
       </c>
       <c r="B28">
@@ -803,7 +803,7 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>29</v>
       </c>
       <c r="B29">
@@ -811,7 +811,7 @@
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="1" t="s">
+      <c r="A30" t="s">
         <v>30</v>
       </c>
       <c r="B30">
@@ -819,7 +819,7 @@
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="1" t="s">
+      <c r="A31" t="s">
         <v>31</v>
       </c>
       <c r="B31">
@@ -827,7 +827,7 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="1" t="s">
+      <c r="A32" t="s">
         <v>32</v>
       </c>
       <c r="B32">
@@ -835,7 +835,7 @@
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="1" t="s">
+      <c r="A33" t="s">
         <v>33</v>
       </c>
       <c r="B33">
@@ -843,7 +843,7 @@
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="1" t="s">
+      <c r="A34" t="s">
         <v>34</v>
       </c>
       <c r="B34">
@@ -851,7 +851,7 @@
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="1" t="s">
+      <c r="A35" t="s">
         <v>35</v>
       </c>
       <c r="B35">
@@ -859,7 +859,7 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>36</v>
       </c>
       <c r="B36">
@@ -867,7 +867,7 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="1" t="s">
+      <c r="A37" t="s">
         <v>37</v>
       </c>
       <c r="B37">
@@ -875,7 +875,7 @@
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="1" t="s">
+      <c r="A38" t="s">
         <v>38</v>
       </c>
       <c r="B38">
@@ -883,7 +883,7 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="1" t="s">
+      <c r="A39" t="s">
         <v>39</v>
       </c>
       <c r="B39">
@@ -891,7 +891,7 @@
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="1" t="s">
+      <c r="A40" t="s">
         <v>40</v>
       </c>
       <c r="B40">
@@ -899,7 +899,7 @@
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="1" t="s">
+      <c r="A41" t="s">
         <v>41</v>
       </c>
       <c r="B41">
@@ -907,7 +907,7 @@
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="1" t="s">
+      <c r="A42" t="s">
         <v>42</v>
       </c>
       <c r="B42">
@@ -915,7 +915,7 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="1" t="s">
+      <c r="A43" t="s">
         <v>43</v>
       </c>
       <c r="B43">
@@ -923,7 +923,7 @@
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="1" t="s">
+      <c r="A44" t="s">
         <v>44</v>
       </c>
       <c r="B44">
@@ -931,7 +931,7 @@
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="1" t="s">
+      <c r="A45" t="s">
         <v>45</v>
       </c>
       <c r="B45">
@@ -939,7 +939,7 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="1" t="s">
+      <c r="A46" t="s">
         <v>46</v>
       </c>
       <c r="B46">
@@ -947,7 +947,7 @@
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="1" t="s">
+      <c r="A47" t="s">
         <v>47</v>
       </c>
       <c r="B47">
@@ -955,7 +955,7 @@
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="1" t="s">
+      <c r="A48" t="s">
         <v>48</v>
       </c>
       <c r="B48">
@@ -963,7 +963,7 @@
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="1" t="s">
+      <c r="A49" t="s">
         <v>49</v>
       </c>
       <c r="B49">
@@ -971,7 +971,7 @@
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="1" t="s">
+      <c r="A50" t="s">
         <v>50</v>
       </c>
       <c r="B50">
@@ -979,7 +979,7 @@
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="1" t="s">
+      <c r="A51" t="s">
         <v>51</v>
       </c>
       <c r="B51">
@@ -987,7 +987,7 @@
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="1" t="s">
+      <c r="A52" t="s">
         <v>52</v>
       </c>
       <c r="B52">
@@ -995,7 +995,7 @@
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="1" t="s">
+      <c r="A53" t="s">
         <v>53</v>
       </c>
       <c r="B53">
@@ -1003,7 +1003,7 @@
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="1" t="s">
+      <c r="A54" t="s">
         <v>54</v>
       </c>
       <c r="B54">
@@ -1011,7 +1011,7 @@
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="1" t="s">
+      <c r="A55" t="s">
         <v>55</v>
       </c>
       <c r="B55">
@@ -1019,7 +1019,7 @@
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="1" t="s">
+      <c r="A56" t="s">
         <v>56</v>
       </c>
       <c r="B56">
@@ -1027,7 +1027,7 @@
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="1" t="s">
+      <c r="A57" t="s">
         <v>57</v>
       </c>
       <c r="B57">
@@ -1035,7 +1035,7 @@
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="1" t="s">
+      <c r="A58" t="s">
         <v>58</v>
       </c>
       <c r="B58">
@@ -1043,7 +1043,7 @@
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="1" t="s">
+      <c r="A59" t="s">
         <v>59</v>
       </c>
       <c r="B59">
@@ -1051,7 +1051,7 @@
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="1" t="s">
+      <c r="A60" t="s">
         <v>60</v>
       </c>
       <c r="B60">
@@ -1059,7 +1059,7 @@
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="1" t="s">
+      <c r="A61" t="s">
         <v>61</v>
       </c>
       <c r="B61">
@@ -1067,7 +1067,7 @@
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="1" t="s">
+      <c r="A62" t="s">
         <v>62</v>
       </c>
       <c r="B62">
@@ -1075,7 +1075,7 @@
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="1" t="s">
+      <c r="A63" t="s">
         <v>63</v>
       </c>
       <c r="B63">
@@ -1083,7 +1083,7 @@
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="1" t="s">
+      <c r="A64" t="s">
         <v>64</v>
       </c>
       <c r="B64">
@@ -1091,7 +1091,7 @@
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="1" t="s">
+      <c r="A65" t="s">
         <v>65</v>
       </c>
       <c r="B65">
@@ -1099,7 +1099,7 @@
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="1" t="s">
+      <c r="A66" t="s">
         <v>66</v>
       </c>
       <c r="B66">
